--- a/test/subsidy_amount_cleaned.xlsx
+++ b/test/subsidy_amount_cleaned.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GyeonggooLee\new_viewer\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3620940E-7B46-49C0-A002-0EF5233FE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA98CA2-92F5-411B-915A-56A5CB48E543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="179">
   <si>
     <t>지역</t>
   </si>
@@ -548,6 +549,18 @@
   </si>
   <si>
     <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>한국환경공단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,12 +625,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -922,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1079,7 @@
       <c r="D4">
         <v>222.4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>227.4</v>
       </c>
       <c r="F4">
@@ -1181,7 +1193,7 @@
       <c r="D7">
         <v>282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>289</v>
       </c>
       <c r="F7">
@@ -1222,7 +1234,7 @@
       <c r="D8">
         <v>316</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>324</v>
       </c>
       <c r="F8">
@@ -1263,7 +1275,7 @@
       <c r="D9">
         <v>254</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>260</v>
       </c>
       <c r="F9">
@@ -1301,7 +1313,7 @@
       <c r="D10">
         <v>303</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>310</v>
       </c>
       <c r="F10">
@@ -1342,7 +1354,7 @@
       <c r="D11">
         <v>229</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>235</v>
       </c>
       <c r="F11">
@@ -1380,7 +1392,7 @@
       <c r="D12">
         <v>289</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>296</v>
       </c>
       <c r="F12">
@@ -1421,7 +1433,7 @@
       <c r="D13">
         <v>306</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>314</v>
       </c>
       <c r="F13">
@@ -1462,7 +1474,7 @@
       <c r="D14">
         <v>285</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>292</v>
       </c>
       <c r="F14">
@@ -1503,7 +1515,7 @@
       <c r="D15">
         <v>289</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>296</v>
       </c>
       <c r="F15">
@@ -1614,7 +1626,7 @@
       <c r="D18">
         <v>306</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>314</v>
       </c>
       <c r="F18">
@@ -1693,7 +1705,7 @@
       <c r="D20">
         <v>306</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>314</v>
       </c>
       <c r="F20">
@@ -1734,7 +1746,7 @@
       <c r="D21">
         <v>289</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>296</v>
       </c>
       <c r="F21">
@@ -1775,7 +1787,7 @@
       <c r="D22">
         <v>271</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>278</v>
       </c>
       <c r="F22">
@@ -1889,7 +1901,7 @@
       <c r="D25">
         <v>306</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>314</v>
       </c>
       <c r="F25">
@@ -1930,7 +1942,7 @@
       <c r="D26">
         <v>289</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>296</v>
       </c>
       <c r="F26">
@@ -1971,7 +1983,7 @@
       <c r="D27">
         <v>306</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>314</v>
       </c>
       <c r="F27">
@@ -2044,7 +2056,7 @@
       <c r="D29">
         <v>289</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>296</v>
       </c>
       <c r="F29">
@@ -2085,7 +2097,7 @@
       <c r="D30">
         <v>289</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>296</v>
       </c>
       <c r="F30">
@@ -2231,7 +2243,7 @@
       <c r="D34">
         <v>285</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>292</v>
       </c>
       <c r="F34">
@@ -2310,7 +2322,7 @@
       <c r="D36">
         <v>289</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>296</v>
       </c>
       <c r="F36">
@@ -2418,7 +2430,7 @@
       <c r="D39">
         <v>341</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>349</v>
       </c>
       <c r="F39">
@@ -2532,7 +2544,7 @@
       <c r="D42">
         <v>341</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>349</v>
       </c>
       <c r="F42">
@@ -2605,7 +2617,7 @@
       <c r="D44">
         <v>302</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>309</v>
       </c>
       <c r="F44">
@@ -2646,7 +2658,7 @@
       <c r="D45">
         <v>302</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>309</v>
       </c>
       <c r="F45">
@@ -2795,7 +2807,7 @@
       <c r="D49">
         <v>302</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>309</v>
       </c>
       <c r="F49">
@@ -2836,7 +2848,7 @@
       <c r="D50">
         <v>302</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>309</v>
       </c>
       <c r="F50">
@@ -2985,7 +2997,7 @@
       <c r="D54">
         <v>302</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>309</v>
       </c>
       <c r="F54">
@@ -3204,7 +3216,7 @@
       <c r="D60">
         <v>302</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>309</v>
       </c>
       <c r="F60">
@@ -3245,7 +3257,7 @@
       <c r="D61">
         <v>404</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>414</v>
       </c>
       <c r="F61">
@@ -3286,7 +3298,7 @@
       <c r="D62">
         <v>404</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>414</v>
       </c>
       <c r="F62">
@@ -3327,7 +3339,7 @@
       <c r="D63">
         <v>404</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63">
         <v>414</v>
       </c>
       <c r="F63">
@@ -3403,7 +3415,7 @@
       <c r="D65">
         <v>404</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65">
         <v>414</v>
       </c>
       <c r="F65">
@@ -3441,7 +3453,7 @@
       <c r="D66">
         <v>404</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <v>414</v>
       </c>
       <c r="F66">
@@ -3482,7 +3494,7 @@
       <c r="D67">
         <v>404</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67">
         <v>414</v>
       </c>
       <c r="F67">
@@ -3523,7 +3535,7 @@
       <c r="D68">
         <v>404</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68">
         <v>414</v>
       </c>
       <c r="F68">
@@ -3564,7 +3576,7 @@
       <c r="D69">
         <v>404</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69">
         <v>414</v>
       </c>
       <c r="F69">
@@ -3605,7 +3617,7 @@
       <c r="D70">
         <v>404</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70">
         <v>414</v>
       </c>
       <c r="F70">
@@ -3684,7 +3696,7 @@
       <c r="D72">
         <v>445</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72">
         <v>456</v>
       </c>
       <c r="F72">
@@ -3725,7 +3737,7 @@
       <c r="D73">
         <v>445</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73">
         <v>456</v>
       </c>
       <c r="F73">
@@ -3912,7 +3924,7 @@
       <c r="D78">
         <v>445</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78">
         <v>456</v>
       </c>
       <c r="F78">
@@ -3953,7 +3965,7 @@
       <c r="D79">
         <v>445</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79">
         <v>456</v>
       </c>
       <c r="F79">
@@ -4061,7 +4073,7 @@
       <c r="D82">
         <v>445</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82">
         <v>456</v>
       </c>
       <c r="F82">
@@ -4102,7 +4114,7 @@
       <c r="D83">
         <v>445</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83">
         <v>456</v>
       </c>
       <c r="F83">
@@ -4143,7 +4155,7 @@
       <c r="D84">
         <v>445</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84">
         <v>456</v>
       </c>
       <c r="F84">
@@ -4534,7 +4546,7 @@
       <c r="D95">
         <v>421</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95">
         <v>431</v>
       </c>
       <c r="F95">
@@ -4610,7 +4622,7 @@
       <c r="D97">
         <v>421</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97">
         <v>431</v>
       </c>
       <c r="F97">
@@ -4686,7 +4698,7 @@
       <c r="D99">
         <v>421</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99">
         <v>431</v>
       </c>
       <c r="F99">
@@ -4762,7 +4774,7 @@
       <c r="D101">
         <v>376</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101">
         <v>385</v>
       </c>
       <c r="F101">
@@ -4908,7 +4920,7 @@
       <c r="D105">
         <v>376</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <v>385</v>
       </c>
       <c r="F105">
@@ -5051,7 +5063,7 @@
       <c r="D109">
         <v>463</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109">
         <v>474</v>
       </c>
       <c r="F109">
@@ -5092,7 +5104,7 @@
       <c r="D110">
         <v>498</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110">
         <v>510</v>
       </c>
       <c r="F110">
@@ -5200,7 +5212,7 @@
       <c r="D113">
         <v>463</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113">
         <v>474</v>
       </c>
       <c r="F113">
@@ -5241,7 +5253,7 @@
       <c r="D114">
         <v>479</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114">
         <v>489</v>
       </c>
       <c r="F114">
@@ -5282,7 +5294,7 @@
       <c r="D115">
         <v>445</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115">
         <v>456</v>
       </c>
       <c r="F115">
@@ -5393,7 +5405,7 @@
       <c r="D118">
         <v>463</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118">
         <v>474</v>
       </c>
       <c r="F118">
@@ -5466,7 +5478,7 @@
       <c r="D120">
         <v>358</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <v>367</v>
       </c>
       <c r="F120">
@@ -5717,7 +5729,7 @@
       <c r="D127">
         <v>410</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127">
         <v>421</v>
       </c>
       <c r="F127">
@@ -5758,7 +5770,7 @@
       <c r="D128">
         <v>410</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128">
         <v>421</v>
       </c>
       <c r="F128">
@@ -5834,7 +5846,7 @@
       <c r="D130">
         <v>410</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130">
         <v>421</v>
       </c>
       <c r="F130">
@@ -5875,7 +5887,7 @@
       <c r="D131">
         <v>410</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131">
         <v>421</v>
       </c>
       <c r="F131">
@@ -5989,7 +6001,7 @@
       <c r="D134">
         <v>410</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134">
         <v>421</v>
       </c>
       <c r="F134">
@@ -6030,7 +6042,7 @@
       <c r="D135">
         <v>410</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135">
         <v>421</v>
       </c>
       <c r="F135">
@@ -6176,7 +6188,7 @@
       <c r="D139">
         <v>410</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139">
         <v>421</v>
       </c>
       <c r="F139">
@@ -6360,7 +6372,7 @@
       <c r="D144">
         <v>479</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144">
         <v>421</v>
       </c>
       <c r="F144">
@@ -6541,7 +6553,7 @@
       <c r="D149">
         <v>384</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149">
         <v>393</v>
       </c>
       <c r="F149">
@@ -6582,7 +6594,7 @@
       <c r="D150">
         <v>384</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150">
         <v>393</v>
       </c>
       <c r="F150">
@@ -6658,7 +6670,7 @@
       <c r="D152">
         <v>384</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152">
         <v>393</v>
       </c>
       <c r="F152">
@@ -6696,7 +6708,7 @@
       <c r="D153">
         <v>384</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153">
         <v>393</v>
       </c>
       <c r="F153">
@@ -6734,7 +6746,7 @@
       <c r="D154">
         <v>384</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154">
         <v>393</v>
       </c>
       <c r="F154">
@@ -6775,7 +6787,7 @@
       <c r="D155">
         <v>384</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155">
         <v>393</v>
       </c>
       <c r="F155">
@@ -6886,7 +6898,7 @@
       <c r="D158">
         <v>384</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158">
         <v>393</v>
       </c>
       <c r="F158">
@@ -6927,7 +6939,7 @@
       <c r="D159">
         <v>384</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159">
         <v>393</v>
       </c>
       <c r="F159">
@@ -7006,7 +7018,7 @@
       <c r="D161">
         <v>384</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161">
         <v>393</v>
       </c>
       <c r="F161">
@@ -7047,7 +7059,7 @@
       <c r="D162">
         <v>466</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162">
         <v>478</v>
       </c>
       <c r="F162">
@@ -7120,7 +7132,7 @@
       <c r="D164">
         <v>341</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164">
         <v>349</v>
       </c>
       <c r="F164">
@@ -7152,4 +7164,1316 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BDA2E-4B40-4EE1-9389-63B0C38ACB90}">
+  <dimension ref="A1:B162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>162</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>